--- a/Excel Dashboards with Power Query/Excel Training Course with Answers.xlsx
+++ b/Excel Dashboards with Power Query/Excel Training Course with Answers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jong\Downloads\ARC files\Excel Training(1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jong\Documents\Portfolio\Portfolio_Projects\Excel Dashboards with Power Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDCE6CF-20C6-492C-8DD2-7BB604CFD9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85BCE49-444D-4A95-978F-D3F86F4E7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FACB53E6-E236-4579-ABC8-2EA865FB7003}"/>
   </bookViews>
@@ -23,12 +23,12 @@
     <sheet name="IF Functions" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtering!$A$4:$L$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtering!$A$4:$H$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'IF Functions'!$A$5:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="136">
   <si>
     <t>Date</t>
   </si>
@@ -124,24 +124,9 @@
     <t>CEBU</t>
   </si>
   <si>
-    <t>ARC Membership Card Number</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>ID for Mobile Account</t>
-  </si>
-  <si>
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Month Counted</t>
-  </si>
-  <si>
-    <t>Subsidiary Name</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -157,9 +142,6 @@
     <t>Province</t>
   </si>
   <si>
-    <t>Supplementary Account</t>
-  </si>
-  <si>
     <t>PAMPANGA</t>
   </si>
   <si>
@@ -169,174 +151,39 @@
     <t>MAKATI CITY</t>
   </si>
   <si>
-    <t>2022 03 225292</t>
-  </si>
-  <si>
-    <t>ACC-336822</t>
-  </si>
-  <si>
-    <t>0015j00000YV8YzAAL</t>
-  </si>
-  <si>
     <t>OLONGAPO CITY</t>
   </si>
   <si>
     <t>ZAMBALES</t>
   </si>
   <si>
-    <t>2022 03 225263</t>
-  </si>
-  <si>
-    <t>ACC-336793</t>
-  </si>
-  <si>
-    <t>0015j00000YUrtjAAD</t>
-  </si>
-  <si>
-    <t>2022 03 225173</t>
-  </si>
-  <si>
-    <t>ACC-336703</t>
-  </si>
-  <si>
-    <t>0015j00000YTeafAAD</t>
-  </si>
-  <si>
-    <t>2022 02 224946</t>
-  </si>
-  <si>
-    <t>ACC-336476</t>
-  </si>
-  <si>
-    <t>0015j00000XDWYIAA5</t>
-  </si>
-  <si>
     <t>PARAÑAQUE CITY</t>
   </si>
   <si>
-    <t>2022 02 224947</t>
-  </si>
-  <si>
-    <t>ACC-336477</t>
-  </si>
-  <si>
-    <t>0015j00000XDYUKAA5</t>
-  </si>
-  <si>
     <t>PASIG CITY</t>
   </si>
   <si>
-    <t>2022 02 224948</t>
-  </si>
-  <si>
-    <t>ACC-336478</t>
-  </si>
-  <si>
-    <t>0015j00000XDYULAA5</t>
-  </si>
-  <si>
     <t>CEBU CITY</t>
   </si>
   <si>
-    <t>2022 02 224918</t>
-  </si>
-  <si>
-    <t>ACC-336448</t>
-  </si>
-  <si>
-    <t>0015j00000XCeEjAAL</t>
-  </si>
-  <si>
-    <t>2022 02 224908</t>
-  </si>
-  <si>
-    <t>ACC-336438</t>
-  </si>
-  <si>
-    <t>0015j00000XC9UWAA1</t>
-  </si>
-  <si>
-    <t>2022 02 224873</t>
-  </si>
-  <si>
-    <t>ACC-336403</t>
-  </si>
-  <si>
-    <t>0015j00000XBjaoAAD</t>
-  </si>
-  <si>
     <t>ANGELES CITY</t>
   </si>
   <si>
-    <t>2022 02 224874</t>
-  </si>
-  <si>
-    <t>ACC-336404</t>
-  </si>
-  <si>
-    <t>0015j00000XBl1uAAD</t>
-  </si>
-  <si>
     <t>QUEZON CITY</t>
   </si>
   <si>
-    <t>2022 02 224740</t>
-  </si>
-  <si>
-    <t>ACC-336246</t>
-  </si>
-  <si>
-    <t>0015j00000XBGSQAA5</t>
-  </si>
-  <si>
     <t>TAGUIG CITY</t>
   </si>
   <si>
-    <t>2022 02 224741</t>
-  </si>
-  <si>
-    <t>ACC-336247</t>
-  </si>
-  <si>
-    <t>0015j00000XBGSRAA5</t>
-  </si>
-  <si>
     <t>TAGAYTAY CITY</t>
   </si>
   <si>
-    <t>2022 02 224701</t>
-  </si>
-  <si>
-    <t>ACC-336249</t>
-  </si>
-  <si>
-    <t>0015j00000XBGSTAA5</t>
-  </si>
-  <si>
     <t>NATIVIDAD</t>
   </si>
   <si>
-    <t>2022 02 224702</t>
-  </si>
-  <si>
-    <t>ACC-336250</t>
-  </si>
-  <si>
-    <t>0015j00000XBGSUAA5</t>
-  </si>
-  <si>
     <t>CALASIAO</t>
   </si>
   <si>
-    <t>2022 02 224703</t>
-  </si>
-  <si>
-    <t>ACC-336251</t>
-  </si>
-  <si>
-    <t>0015j00000XBGSVAA5</t>
-  </si>
-  <si>
     <t>SAN JUAN CITY</t>
   </si>
   <si>
@@ -379,15 +226,6 @@
     <t>STRING FUNCTIONS (TRIM, CONCAT, LOWER, UPPER, PROPER)</t>
   </si>
   <si>
-    <t>CustOmer</t>
-  </si>
-  <si>
-    <t>GrOUp</t>
-  </si>
-  <si>
-    <t>InSigHting</t>
-  </si>
-  <si>
     <t>CONCAT</t>
   </si>
   <si>
@@ -403,9 +241,6 @@
     <t>PROPER</t>
   </si>
   <si>
-    <t xml:space="preserve">AyALa        </t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
@@ -469,162 +304,21 @@
     <t>abcd</t>
   </si>
   <si>
-    <t>0015j00000xbgsraa5</t>
-  </si>
-  <si>
-    <t>SUBSIDIARY</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>2018 01 140238</t>
-  </si>
-  <si>
-    <t>Ayala Land Inc.</t>
-  </si>
-  <si>
-    <t>2021 09 218947</t>
-  </si>
-  <si>
-    <t>2016 05 066551</t>
-  </si>
-  <si>
-    <t>2021 12 223148</t>
-  </si>
-  <si>
-    <t>2018 05 161565</t>
-  </si>
-  <si>
-    <t>AYALA/NON-AYALA</t>
-  </si>
-  <si>
-    <t>CLUSTER</t>
-  </si>
-  <si>
-    <t>AYALA</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Non-Ayala</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
-    <t>SPECIFIC BRAND</t>
-  </si>
-  <si>
     <t>F&amp;B</t>
   </si>
   <si>
-    <t>Seda Centrio</t>
-  </si>
-  <si>
     <t>Leisure</t>
   </si>
   <si>
-    <t>Lily Batangas</t>
-  </si>
-  <si>
-    <t>Auntie Anne's</t>
-  </si>
-  <si>
-    <t>2015 05 005193</t>
-  </si>
-  <si>
-    <t>2017 12 139072</t>
-  </si>
-  <si>
-    <t>2018 01 141039</t>
-  </si>
-  <si>
-    <t>2021 12 223226</t>
-  </si>
-  <si>
-    <t>2018 06 166004</t>
-  </si>
-  <si>
-    <t>2016 04 065336</t>
-  </si>
-  <si>
-    <t>Seda Nuvali</t>
-  </si>
-  <si>
-    <t>2019 07 193925</t>
-  </si>
-  <si>
-    <t>Isuzu</t>
-  </si>
-  <si>
-    <t>2019 10 197957</t>
-  </si>
-  <si>
-    <t>Seda Residences Makati</t>
-  </si>
-  <si>
-    <t>Seda Atria</t>
-  </si>
-  <si>
-    <t>2019 03 186769</t>
-  </si>
-  <si>
-    <t>2016 02 052842</t>
-  </si>
-  <si>
-    <t>2015 10 016013</t>
-  </si>
-  <si>
-    <t>2018 01 143364</t>
-  </si>
-  <si>
-    <t>2018 10 177536</t>
-  </si>
-  <si>
-    <t>2020 12 204939</t>
-  </si>
-  <si>
-    <t>Seda BGC</t>
-  </si>
-  <si>
     <t>Automotive</t>
   </si>
   <si>
-    <t>BPI MS Insurance</t>
-  </si>
-  <si>
-    <t>2016 05 066474</t>
-  </si>
-  <si>
-    <t>2018 01 140269</t>
-  </si>
-  <si>
-    <t>Globe Telecom</t>
-  </si>
-  <si>
-    <t>2021 05 213619</t>
-  </si>
-  <si>
-    <t>2016 06 071161</t>
-  </si>
-  <si>
-    <t>2022 01 224007</t>
-  </si>
-  <si>
-    <t>2019 08 195285</t>
-  </si>
-  <si>
-    <t>2015 12 035743</t>
-  </si>
-  <si>
     <t>Lifestyle</t>
   </si>
   <si>
-    <t>Owndays</t>
-  </si>
-  <si>
     <t>DATE AVAILED</t>
   </si>
   <si>
@@ -664,105 +358,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>10-8507</t>
-  </si>
-  <si>
-    <t>4-8639</t>
-  </si>
-  <si>
-    <t>2-2661</t>
-  </si>
-  <si>
-    <t>17-4118</t>
-  </si>
-  <si>
-    <t>12-1424</t>
-  </si>
-  <si>
-    <t>1-1935</t>
-  </si>
-  <si>
-    <t>2-5329</t>
-  </si>
-  <si>
-    <t>13-9862</t>
-  </si>
-  <si>
-    <t>3-1356</t>
-  </si>
-  <si>
-    <t>4-6362</t>
-  </si>
-  <si>
-    <t>16-7050</t>
-  </si>
-  <si>
-    <t>4-1243</t>
-  </si>
-  <si>
-    <t>11-8998</t>
-  </si>
-  <si>
-    <t>3-1340</t>
-  </si>
-  <si>
-    <t>8-3916</t>
-  </si>
-  <si>
-    <t>12-6796</t>
-  </si>
-  <si>
-    <t>8-4531</t>
-  </si>
-  <si>
-    <t>13-2612</t>
-  </si>
-  <si>
-    <t>9-7422</t>
-  </si>
-  <si>
-    <t>12-9807</t>
-  </si>
-  <si>
-    <t>9-5575</t>
-  </si>
-  <si>
-    <t>23-8306</t>
-  </si>
-  <si>
-    <t>1-4119</t>
-  </si>
-  <si>
-    <t>16-1245</t>
-  </si>
-  <si>
-    <t>2-7487</t>
-  </si>
-  <si>
-    <t>7-2158</t>
-  </si>
-  <si>
-    <t>17-9379</t>
-  </si>
-  <si>
-    <t>3-3048</t>
-  </si>
-  <si>
-    <t>5-4128</t>
-  </si>
-  <si>
-    <t>12-4842</t>
-  </si>
-  <si>
-    <t>22-4937</t>
-  </si>
-  <si>
-    <t>1-4198</t>
-  </si>
-  <si>
-    <t>Customer No</t>
-  </si>
-  <si>
     <t>Check if High Revenue (&gt;2000)</t>
   </si>
   <si>
@@ -794,6 +389,96 @@
   </si>
   <si>
     <t>AVERAGEIFS Lifestyle and High Revenue</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>SMDC</t>
+  </si>
+  <si>
+    <t>DITO</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Megaworld</t>
+  </si>
+  <si>
+    <t>Account ID</t>
+  </si>
+  <si>
+    <t>244378ASUV</t>
+  </si>
+  <si>
+    <t>785787AGQG</t>
+  </si>
+  <si>
+    <t>520987IUQW</t>
+  </si>
+  <si>
+    <t>479464IOXQ</t>
+  </si>
+  <si>
+    <t>993296ZIUD</t>
+  </si>
+  <si>
+    <t>889715UHFA</t>
+  </si>
+  <si>
+    <t>404003ZODI</t>
+  </si>
+  <si>
+    <t>533028QERT</t>
+  </si>
+  <si>
+    <t>140056ZVVD</t>
+  </si>
+  <si>
+    <t>732075NVJA</t>
+  </si>
+  <si>
+    <t>606645QWEU</t>
+  </si>
+  <si>
+    <t>680301ZVCY</t>
+  </si>
+  <si>
+    <t>349488OIPQ</t>
+  </si>
+  <si>
+    <t>175269QEWT</t>
+  </si>
+  <si>
+    <t>606645QweU</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Lamborghini</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Date Purchased</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>SaMple</t>
+  </si>
+  <si>
+    <t>CompAnY</t>
+  </si>
+  <si>
+    <t>inCorpOraTED</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +898,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1259,32 +944,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1294,9 +955,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1321,12 +979,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1357,15 +1009,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1373,7 +1054,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1391,26 +1075,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1465,7 +1129,7 @@
   </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:pivotSource>
-    <c:name>[Excel Training Course Answers.xlsx]PivotTable and PivotCharts!PivotTable1</c:name>
+    <c:name>[Excel Training Course with Answers.xlsx]PivotTable and PivotCharts!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1871,7 +1535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PivotTable and PivotCharts'!$K$4</c:f>
+              <c:f>'PivotTable and PivotCharts'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1947,7 +1611,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PivotTable and PivotCharts'!$J$5:$J$10</c:f>
+              <c:f>'PivotTable and PivotCharts'!$F$5:$F$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1970,24 +1634,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PivotTable and PivotCharts'!$K$5:$K$10</c:f>
+              <c:f>'PivotTable and PivotCharts'!$G$5:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>131265.16999999998</c:v>
+                  <c:v>70351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4806.07</c:v>
+                  <c:v>21296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4554.09</c:v>
+                  <c:v>18117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9876</c:v>
+                  <c:v>20246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17775.16</c:v>
+                  <c:v>17370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,13 +2346,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
@@ -2720,28 +2384,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ARC Deo FLORES" refreshedDate="44718.727212731479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{920F26C9-0F53-48D6-AD4D-5C91606110E2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jong" refreshedDate="44987.025363773151" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{920F26C9-0F53-48D6-AD4D-5C91606110E2}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A4:H36" sheet="PivotTable and PivotCharts"/>
+    <worksheetSource ref="A4:D36" sheet="PivotTable and PivotCharts"/>
   </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="SUBSIDIARY" numFmtId="0">
+  <cacheFields count="5">
+    <cacheField name="Company" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="MCN" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="AYALA/NON-AYALA" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="CLUSTER" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="CATEGORY" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="SPECIFIC BRAND" numFmtId="0">
-      <sharedItems/>
+    <cacheField name="Customer ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="137" maxValue="972"/>
     </cacheField>
     <cacheField name="DATE AVAILED" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-01-02T00:00:00" maxDate="2022-05-30T00:00:00" count="24">
@@ -2770,19 +2422,19 @@
         <d v="2022-01-20T00:00:00"/>
         <d v="2022-01-23T00:00:00"/>
       </sharedItems>
-      <fieldGroup par="8" base="6">
+      <fieldGroup par="4" base="2">
         <rangePr groupBy="days" startDate="2022-01-02T00:00:00" endDate="2022-05-30T00:00:00"/>
         <groupItems count="368">
-          <s v="&lt;01/02/2022"/>
-          <s v="01-Jan"/>
-          <s v="02-Jan"/>
-          <s v="03-Jan"/>
-          <s v="04-Jan"/>
-          <s v="05-Jan"/>
-          <s v="06-Jan"/>
-          <s v="07-Jan"/>
-          <s v="08-Jan"/>
-          <s v="09-Jan"/>
+          <s v="&lt;1/2/2022"/>
+          <s v="1-Jan"/>
+          <s v="2-Jan"/>
+          <s v="3-Jan"/>
+          <s v="4-Jan"/>
+          <s v="5-Jan"/>
+          <s v="6-Jan"/>
+          <s v="7-Jan"/>
+          <s v="8-Jan"/>
+          <s v="9-Jan"/>
           <s v="10-Jan"/>
           <s v="11-Jan"/>
           <s v="12-Jan"/>
@@ -2805,15 +2457,15 @@
           <s v="29-Jan"/>
           <s v="30-Jan"/>
           <s v="31-Jan"/>
-          <s v="01-Feb"/>
-          <s v="02-Feb"/>
-          <s v="03-Feb"/>
-          <s v="04-Feb"/>
-          <s v="05-Feb"/>
-          <s v="06-Feb"/>
-          <s v="07-Feb"/>
-          <s v="08-Feb"/>
-          <s v="09-Feb"/>
+          <s v="1-Feb"/>
+          <s v="2-Feb"/>
+          <s v="3-Feb"/>
+          <s v="4-Feb"/>
+          <s v="5-Feb"/>
+          <s v="6-Feb"/>
+          <s v="7-Feb"/>
+          <s v="8-Feb"/>
+          <s v="9-Feb"/>
           <s v="10-Feb"/>
           <s v="11-Feb"/>
           <s v="12-Feb"/>
@@ -2834,15 +2486,15 @@
           <s v="27-Feb"/>
           <s v="28-Feb"/>
           <s v="29-Feb"/>
-          <s v="01-Mar"/>
-          <s v="02-Mar"/>
-          <s v="03-Mar"/>
-          <s v="04-Mar"/>
-          <s v="05-Mar"/>
-          <s v="06-Mar"/>
-          <s v="07-Mar"/>
-          <s v="08-Mar"/>
-          <s v="09-Mar"/>
+          <s v="1-Mar"/>
+          <s v="2-Mar"/>
+          <s v="3-Mar"/>
+          <s v="4-Mar"/>
+          <s v="5-Mar"/>
+          <s v="6-Mar"/>
+          <s v="7-Mar"/>
+          <s v="8-Mar"/>
+          <s v="9-Mar"/>
           <s v="10-Mar"/>
           <s v="11-Mar"/>
           <s v="12-Mar"/>
@@ -2865,15 +2517,15 @@
           <s v="29-Mar"/>
           <s v="30-Mar"/>
           <s v="31-Mar"/>
-          <s v="01-Apr"/>
-          <s v="02-Apr"/>
-          <s v="03-Apr"/>
-          <s v="04-Apr"/>
-          <s v="05-Apr"/>
-          <s v="06-Apr"/>
-          <s v="07-Apr"/>
-          <s v="08-Apr"/>
-          <s v="09-Apr"/>
+          <s v="1-Apr"/>
+          <s v="2-Apr"/>
+          <s v="3-Apr"/>
+          <s v="4-Apr"/>
+          <s v="5-Apr"/>
+          <s v="6-Apr"/>
+          <s v="7-Apr"/>
+          <s v="8-Apr"/>
+          <s v="9-Apr"/>
           <s v="10-Apr"/>
           <s v="11-Apr"/>
           <s v="12-Apr"/>
@@ -2895,15 +2547,15 @@
           <s v="28-Apr"/>
           <s v="29-Apr"/>
           <s v="30-Apr"/>
-          <s v="01-May"/>
-          <s v="02-May"/>
-          <s v="03-May"/>
-          <s v="04-May"/>
-          <s v="05-May"/>
-          <s v="06-May"/>
-          <s v="07-May"/>
-          <s v="08-May"/>
-          <s v="09-May"/>
+          <s v="1-May"/>
+          <s v="2-May"/>
+          <s v="3-May"/>
+          <s v="4-May"/>
+          <s v="5-May"/>
+          <s v="6-May"/>
+          <s v="7-May"/>
+          <s v="8-May"/>
+          <s v="9-May"/>
           <s v="10-May"/>
           <s v="11-May"/>
           <s v="12-May"/>
@@ -2926,15 +2578,15 @@
           <s v="29-May"/>
           <s v="30-May"/>
           <s v="31-May"/>
-          <s v="01-Jun"/>
-          <s v="02-Jun"/>
-          <s v="03-Jun"/>
-          <s v="04-Jun"/>
-          <s v="05-Jun"/>
-          <s v="06-Jun"/>
-          <s v="07-Jun"/>
-          <s v="08-Jun"/>
-          <s v="09-Jun"/>
+          <s v="1-Jun"/>
+          <s v="2-Jun"/>
+          <s v="3-Jun"/>
+          <s v="4-Jun"/>
+          <s v="5-Jun"/>
+          <s v="6-Jun"/>
+          <s v="7-Jun"/>
+          <s v="8-Jun"/>
+          <s v="9-Jun"/>
           <s v="10-Jun"/>
           <s v="11-Jun"/>
           <s v="12-Jun"/>
@@ -2956,15 +2608,15 @@
           <s v="28-Jun"/>
           <s v="29-Jun"/>
           <s v="30-Jun"/>
-          <s v="01-Jul"/>
-          <s v="02-Jul"/>
-          <s v="03-Jul"/>
-          <s v="04-Jul"/>
-          <s v="05-Jul"/>
-          <s v="06-Jul"/>
-          <s v="07-Jul"/>
-          <s v="08-Jul"/>
-          <s v="09-Jul"/>
+          <s v="1-Jul"/>
+          <s v="2-Jul"/>
+          <s v="3-Jul"/>
+          <s v="4-Jul"/>
+          <s v="5-Jul"/>
+          <s v="6-Jul"/>
+          <s v="7-Jul"/>
+          <s v="8-Jul"/>
+          <s v="9-Jul"/>
           <s v="10-Jul"/>
           <s v="11-Jul"/>
           <s v="12-Jul"/>
@@ -2987,15 +2639,15 @@
           <s v="29-Jul"/>
           <s v="30-Jul"/>
           <s v="31-Jul"/>
-          <s v="01-Aug"/>
-          <s v="02-Aug"/>
-          <s v="03-Aug"/>
-          <s v="04-Aug"/>
-          <s v="05-Aug"/>
-          <s v="06-Aug"/>
-          <s v="07-Aug"/>
-          <s v="08-Aug"/>
-          <s v="09-Aug"/>
+          <s v="1-Aug"/>
+          <s v="2-Aug"/>
+          <s v="3-Aug"/>
+          <s v="4-Aug"/>
+          <s v="5-Aug"/>
+          <s v="6-Aug"/>
+          <s v="7-Aug"/>
+          <s v="8-Aug"/>
+          <s v="9-Aug"/>
           <s v="10-Aug"/>
           <s v="11-Aug"/>
           <s v="12-Aug"/>
@@ -3018,15 +2670,15 @@
           <s v="29-Aug"/>
           <s v="30-Aug"/>
           <s v="31-Aug"/>
-          <s v="01-Sep"/>
-          <s v="02-Sep"/>
-          <s v="03-Sep"/>
-          <s v="04-Sep"/>
-          <s v="05-Sep"/>
-          <s v="06-Sep"/>
-          <s v="07-Sep"/>
-          <s v="08-Sep"/>
-          <s v="09-Sep"/>
+          <s v="1-Sep"/>
+          <s v="2-Sep"/>
+          <s v="3-Sep"/>
+          <s v="4-Sep"/>
+          <s v="5-Sep"/>
+          <s v="6-Sep"/>
+          <s v="7-Sep"/>
+          <s v="8-Sep"/>
+          <s v="9-Sep"/>
           <s v="10-Sep"/>
           <s v="11-Sep"/>
           <s v="12-Sep"/>
@@ -3048,15 +2700,15 @@
           <s v="28-Sep"/>
           <s v="29-Sep"/>
           <s v="30-Sep"/>
-          <s v="01-Oct"/>
-          <s v="02-Oct"/>
-          <s v="03-Oct"/>
-          <s v="04-Oct"/>
-          <s v="05-Oct"/>
-          <s v="06-Oct"/>
-          <s v="07-Oct"/>
-          <s v="08-Oct"/>
-          <s v="09-Oct"/>
+          <s v="1-Oct"/>
+          <s v="2-Oct"/>
+          <s v="3-Oct"/>
+          <s v="4-Oct"/>
+          <s v="5-Oct"/>
+          <s v="6-Oct"/>
+          <s v="7-Oct"/>
+          <s v="8-Oct"/>
+          <s v="9-Oct"/>
           <s v="10-Oct"/>
           <s v="11-Oct"/>
           <s v="12-Oct"/>
@@ -3079,15 +2731,15 @@
           <s v="29-Oct"/>
           <s v="30-Oct"/>
           <s v="31-Oct"/>
-          <s v="01-Nov"/>
-          <s v="02-Nov"/>
-          <s v="03-Nov"/>
-          <s v="04-Nov"/>
-          <s v="05-Nov"/>
-          <s v="06-Nov"/>
-          <s v="07-Nov"/>
-          <s v="08-Nov"/>
-          <s v="09-Nov"/>
+          <s v="1-Nov"/>
+          <s v="2-Nov"/>
+          <s v="3-Nov"/>
+          <s v="4-Nov"/>
+          <s v="5-Nov"/>
+          <s v="6-Nov"/>
+          <s v="7-Nov"/>
+          <s v="8-Nov"/>
+          <s v="9-Nov"/>
           <s v="10-Nov"/>
           <s v="11-Nov"/>
           <s v="12-Nov"/>
@@ -3109,15 +2761,15 @@
           <s v="28-Nov"/>
           <s v="29-Nov"/>
           <s v="30-Nov"/>
-          <s v="01-Dec"/>
-          <s v="02-Dec"/>
-          <s v="03-Dec"/>
-          <s v="04-Dec"/>
-          <s v="05-Dec"/>
-          <s v="06-Dec"/>
-          <s v="07-Dec"/>
-          <s v="08-Dec"/>
-          <s v="09-Dec"/>
+          <s v="1-Dec"/>
+          <s v="2-Dec"/>
+          <s v="3-Dec"/>
+          <s v="4-Dec"/>
+          <s v="5-Dec"/>
+          <s v="6-Dec"/>
+          <s v="7-Dec"/>
+          <s v="8-Dec"/>
+          <s v="9-Dec"/>
           <s v="10-Dec"/>
           <s v="11-Dec"/>
           <s v="12-Dec"/>
@@ -3140,18 +2792,18 @@
           <s v="29-Dec"/>
           <s v="30-Dec"/>
           <s v="31-Dec"/>
-          <s v="&gt;05/30/2022"/>
+          <s v="&gt;5/30/2022"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="REVENUE" numFmtId="166">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="205" maxValue="33300"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="515" maxValue="9839"/>
     </cacheField>
     <cacheField name="Months" numFmtId="0" databaseField="0">
-      <fieldGroup base="6">
+      <fieldGroup base="2">
         <rangePr groupBy="months" startDate="2022-01-02T00:00:00" endDate="2022-05-30T00:00:00"/>
         <groupItems count="14">
-          <s v="&lt;01/02/2022"/>
+          <s v="&lt;1/2/2022"/>
           <s v="Jan"/>
           <s v="Feb"/>
           <s v="Mar"/>
@@ -3164,7 +2816,7 @@
           <s v="Oct"/>
           <s v="Nov"/>
           <s v="Dec"/>
-          <s v="&gt;05/30/2022"/>
+          <s v="&gt;5/30/2022"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3180,350 +2832,208 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
   <r>
-    <s v="BPI"/>
-    <s v="2018 01 140238"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Centrio"/>
+    <s v="Honda"/>
+    <n v="626"/>
     <x v="0"/>
-    <n v="765"/>
+    <n v="3093"/>
   </r>
   <r>
-    <s v="Ayala Land Inc."/>
-    <s v="2021 09 218947"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Leisure"/>
-    <s v="Lily Batangas"/>
+    <s v="Toyota"/>
+    <n v="622"/>
     <x v="1"/>
-    <n v="33300"/>
-  </r>
-  <r>
-    <s v="BPI"/>
-    <s v="2016 05 066551"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="F&amp;B"/>
-    <s v="Auntie Anne's"/>
-    <x v="1"/>
-    <n v="225"/>
-  </r>
-  <r>
-    <s v="BPI"/>
-    <s v="2021 12 223148"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="F&amp;B"/>
-    <s v="Auntie Anne's"/>
-    <x v="1"/>
-    <n v="205"/>
-  </r>
-  <r>
-    <s v="BPI"/>
-    <s v="2018 05 161565"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="F&amp;B"/>
-    <s v="Auntie Anne's"/>
-    <x v="2"/>
-    <n v="290"/>
-  </r>
-  <r>
-    <s v="Ayala Land Inc."/>
-    <s v="2015 05 005193"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="0"/>
-    <n v="1444.52"/>
-  </r>
-  <r>
-    <s v="Ayala Land Inc."/>
-    <s v="2015 05 005193"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="3"/>
-    <n v="351.01"/>
-  </r>
-  <r>
-    <s v="BPI"/>
-    <s v="2017 12 139072"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="4"/>
-    <n v="2190.0300000000002"/>
+    <n v="4030"/>
   </r>
   <r>
     <s v="Honda"/>
-    <s v="2018 01 141039"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="5"/>
-    <n v="2265.0300000000002"/>
+    <n v="186"/>
+    <x v="1"/>
+    <n v="9839"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2021 12 223226"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="6"/>
-    <n v="1471.53"/>
+    <s v="Nissan"/>
+    <n v="804"/>
+    <x v="1"/>
+    <n v="9519"/>
+  </r>
+  <r>
+    <s v="Lamborghini"/>
+    <n v="481"/>
+    <x v="2"/>
+    <n v="1936"/>
+  </r>
+  <r>
+    <s v="Lamborghini"/>
+    <n v="687"/>
+    <x v="0"/>
+    <n v="1649"/>
+  </r>
+  <r>
+    <s v="Ferrari"/>
+    <n v="972"/>
+    <x v="3"/>
+    <n v="8513"/>
+  </r>
+  <r>
+    <s v="Lamborghini"/>
+    <n v="731"/>
+    <x v="4"/>
+    <n v="4179"/>
   </r>
   <r>
     <s v="Honda"/>
-    <s v="2018 01 141039"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="7"/>
-    <n v="1300.52"/>
+    <n v="866"/>
+    <x v="5"/>
+    <n v="8604"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2021 12 223226"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="8"/>
-    <n v="405.01"/>
-  </r>
-  <r>
-    <s v="BPI"/>
-    <s v="2018 06 166004"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="9"/>
-    <n v="432"/>
-  </r>
-  <r>
-    <s v="BPI"/>
-    <s v="2016 04 065336"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="10"/>
-    <n v="945.03"/>
+    <s v="Toyota"/>
+    <n v="384"/>
+    <x v="6"/>
+    <n v="2688"/>
   </r>
   <r>
     <s v="Honda"/>
-    <s v="2018 01 141039"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="11"/>
-    <n v="3400.07"/>
+    <n v="302"/>
+    <x v="7"/>
+    <n v="515"/>
+  </r>
+  <r>
+    <s v="Lamborghini"/>
+    <n v="865"/>
+    <x v="8"/>
+    <n v="4168"/>
   </r>
   <r>
     <s v="Honda"/>
-    <s v="2018 01 141039"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Nuvali"/>
-    <x v="12"/>
-    <n v="539.99"/>
+    <n v="624"/>
+    <x v="9"/>
+    <n v="5640"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2019 07 193925"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Residences Makati"/>
-    <x v="13"/>
-    <n v="5935.94"/>
+    <s v="Honda"/>
+    <n v="137"/>
+    <x v="10"/>
+    <n v="5106"/>
   </r>
   <r>
-    <s v="Isuzu"/>
-    <s v="2019 10 197957"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Atria"/>
-    <x v="14"/>
-    <n v="425.16"/>
+    <s v="Lamborghini"/>
+    <n v="206"/>
+    <x v="11"/>
+    <n v="8516"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2019 03 186769"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda BGC"/>
-    <x v="14"/>
-    <n v="8790"/>
+    <s v="Honda"/>
+    <n v="856"/>
+    <x v="12"/>
+    <n v="6594"/>
   </r>
   <r>
-    <s v="Ayala Land Inc."/>
-    <s v="2016 02 052842"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda BGC"/>
-    <x v="14"/>
-    <n v="3610"/>
+    <s v="Lamborghini"/>
+    <n v="884"/>
+    <x v="13"/>
+    <n v="5136"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2015 10 016013"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda BGC"/>
-    <x v="15"/>
-    <n v="4950"/>
+    <s v="Ferrari"/>
+    <n v="287"/>
+    <x v="14"/>
+    <n v="4136"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2018 01 143364"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda BGC"/>
-    <x v="16"/>
-    <n v="2839.28"/>
+    <s v="Nissan"/>
+    <n v="177"/>
+    <x v="14"/>
+    <n v="925"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2018 10 177536"/>
-    <s v="AYALA"/>
-    <s v="BPI"/>
-    <s v="Automotive"/>
-    <s v="BPI MS Insurance"/>
-    <x v="2"/>
-    <n v="26718.41"/>
+    <s v="Nissan"/>
+    <n v="464"/>
+    <x v="14"/>
+    <n v="3061"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2020 12 204939"/>
-    <s v="AYALA"/>
-    <s v="BPI"/>
-    <s v="Automotive"/>
-    <s v="BPI MS Insurance"/>
-    <x v="17"/>
-    <n v="28282.959999999999"/>
+    <s v="Toyota"/>
+    <n v="494"/>
+    <x v="15"/>
+    <n v="9248"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2018 01 140238"/>
-    <s v="AYALA"/>
-    <s v="Others"/>
-    <s v="F&amp;B"/>
-    <s v="Seda Centrio"/>
-    <x v="18"/>
-    <n v="765"/>
+    <s v="Honda"/>
+    <n v="613"/>
+    <x v="16"/>
+    <n v="8266"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2016 05 066474"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Lifestyle"/>
-    <s v="Owndays"/>
-    <x v="19"/>
-    <n v="9490"/>
+    <s v="Toyota"/>
+    <n v="663"/>
+    <x v="2"/>
+    <n v="1798"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2018 01 140269"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Lifestyle"/>
-    <s v="Owndays"/>
-    <x v="19"/>
-    <n v="8990"/>
+    <s v="Ferrari"/>
+    <n v="911"/>
+    <x v="17"/>
+    <n v="7928"/>
   </r>
   <r>
-    <s v="Globe Telecom"/>
-    <s v="2021 05 213619"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Lifestyle"/>
-    <s v="Owndays"/>
-    <x v="20"/>
-    <n v="3990"/>
+    <s v="Toyota"/>
+    <n v="920"/>
+    <x v="18"/>
+    <n v="1855"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2016 06 071161"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Lifestyle"/>
-    <s v="Owndays"/>
-    <x v="1"/>
-    <n v="4990"/>
+    <s v="Lamborghini"/>
+    <n v="364"/>
+    <x v="19"/>
+    <n v="4716"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2022 01 224007"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Lifestyle"/>
-    <s v="Owndays"/>
-    <x v="21"/>
-    <n v="2490"/>
+    <s v="Honda"/>
+    <n v="734"/>
+    <x v="19"/>
+    <n v="3281"/>
   </r>
   <r>
-    <s v="BPI"/>
-    <s v="2019 08 195285"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Lifestyle"/>
-    <s v="Owndays"/>
-    <x v="22"/>
-    <n v="2490"/>
+    <s v="Lamborghini"/>
+    <n v="581"/>
+    <x v="20"/>
+    <n v="3090"/>
   </r>
   <r>
-    <s v="Ayala Land Inc."/>
-    <s v="2015 12 035743"/>
-    <s v="Non-Ayala"/>
-    <s v="Non-Ayala"/>
-    <s v="Lifestyle"/>
-    <s v="Owndays"/>
+    <s v="Ferrari"/>
+    <n v="242"/>
+    <x v="1"/>
+    <n v="3022"/>
+  </r>
+  <r>
+    <s v="Ferrari"/>
+    <n v="531"/>
+    <x v="21"/>
+    <n v="942"/>
+  </r>
+  <r>
+    <s v="Toyota"/>
+    <n v="239"/>
+    <x v="22"/>
+    <n v="1928"/>
+  </r>
+  <r>
+    <s v="Ferrari"/>
+    <n v="379"/>
     <x v="23"/>
-    <n v="3990"/>
+    <n v="3459"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95981FA9-F75F-42DB-B023-80313628E19D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="J4:K10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95981FA9-F75F-42DB-B023-80313628E19D}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="F4:G10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="165" showAll="0">
       <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
@@ -3546,15 +3056,6 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
@@ -3575,15 +3076,6 @@
         <item x="58"/>
         <item x="59"/>
         <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
         <item x="70"/>
         <item x="71"/>
         <item x="72"/>
@@ -3606,15 +3098,6 @@
         <item x="89"/>
         <item x="90"/>
         <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
         <item x="101"/>
         <item x="102"/>
         <item x="103"/>
@@ -3636,15 +3119,6 @@
         <item x="119"/>
         <item x="120"/>
         <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
         <item x="131"/>
         <item x="132"/>
         <item x="133"/>
@@ -3667,15 +3141,6 @@
         <item x="150"/>
         <item x="151"/>
         <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
         <item x="162"/>
         <item x="163"/>
         <item x="164"/>
@@ -3697,15 +3162,6 @@
         <item x="180"/>
         <item x="181"/>
         <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
         <item x="192"/>
         <item x="193"/>
         <item x="194"/>
@@ -3728,15 +3184,6 @@
         <item x="211"/>
         <item x="212"/>
         <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
         <item x="223"/>
         <item x="224"/>
         <item x="225"/>
@@ -3759,15 +3206,6 @@
         <item x="242"/>
         <item x="243"/>
         <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
         <item x="254"/>
         <item x="255"/>
         <item x="256"/>
@@ -3789,15 +3227,6 @@
         <item x="272"/>
         <item x="273"/>
         <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
         <item x="284"/>
         <item x="285"/>
         <item x="286"/>
@@ -3820,15 +3249,6 @@
         <item x="303"/>
         <item x="304"/>
         <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
         <item x="315"/>
         <item x="316"/>
         <item x="317"/>
@@ -3850,15 +3270,6 @@
         <item x="333"/>
         <item x="334"/>
         <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
         <item x="345"/>
         <item x="346"/>
         <item x="347"/>
@@ -3881,6 +3292,115 @@
         <item x="364"/>
         <item x="365"/>
         <item x="366"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
         <item x="367"/>
         <item t="default"/>
       </items>
@@ -3907,7 +3427,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="8"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="6">
     <i>
@@ -3933,10 +3453,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of REVENUE" fld="7" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Sum of REVENUE" fld="3" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4589,14 +4109,14 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" s="32">
+        <v>86</v>
+      </c>
+      <c r="J3" s="24">
         <f ca="1">H4-TODAY()</f>
-        <v>-244</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4622,16 +4142,16 @@
         <v>44742</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" s="33">
+        <v>87</v>
+      </c>
+      <c r="J4" s="25">
         <f ca="1">_xlfn.DAYS(H4, TODAY())</f>
-        <v>-244</v>
+        <v>-245</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="B5" s="16">
         <v>12345</v>
@@ -4650,9 +4170,9 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="34">
+        <v>88</v>
+      </c>
+      <c r="J5" s="26">
         <f>H4+14</f>
         <v>44756</v>
       </c>
@@ -4688,685 +4208,478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CBDC4F-FA36-41D6-BEF5-839AC3A22A39}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>219</v>
+      </c>
+      <c r="B5" s="11">
+        <v>26854</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>541</v>
+      </c>
+      <c r="B6" s="11">
+        <v>28212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>570</v>
+      </c>
+      <c r="B7" s="11">
+        <v>22842</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>197</v>
+      </c>
+      <c r="B8" s="11">
+        <v>23163</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>871</v>
+      </c>
+      <c r="B9" s="11">
+        <v>34943</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>503</v>
+      </c>
+      <c r="B10" s="11">
+        <v>24118</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>56</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>445</v>
+      </c>
+      <c r="B11" s="11">
+        <v>25018</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>632</v>
+      </c>
+      <c r="B12" s="11">
+        <v>33963</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>350</v>
+      </c>
+      <c r="B13" s="11">
+        <v>19789</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>975</v>
+      </c>
+      <c r="B14" s="11">
+        <v>24811</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>837</v>
+      </c>
+      <c r="B15" s="11">
+        <v>30413</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>804</v>
+      </c>
+      <c r="B16" s="11">
+        <v>34630</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>381</v>
+      </c>
+      <c r="B17" s="11">
+        <v>16142</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>78</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>308</v>
+      </c>
+      <c r="B18" s="11">
+        <v>30395</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>443</v>
+      </c>
+      <c r="B19" s="11">
+        <v>25609</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>52</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>443</v>
+      </c>
+      <c r="B20" s="11">
+        <v>25018</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11">
-        <v>26854</v>
-      </c>
-      <c r="E5" s="11">
-        <v>44628</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>48</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="11">
-        <v>28212</v>
-      </c>
-      <c r="E6" s="11">
-        <v>44627</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="11">
-        <v>22842</v>
-      </c>
-      <c r="E7" s="11">
-        <v>44622</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2">
-        <v>59</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="11">
-        <v>23163</v>
-      </c>
-      <c r="E8" s="11">
-        <v>44613</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2">
-        <v>58</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11">
-        <v>34943</v>
-      </c>
-      <c r="E9" s="11">
-        <v>44613</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="2">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="11">
-        <v>24118</v>
-      </c>
-      <c r="E10" s="11">
-        <v>44613</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2">
-        <v>56</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="11">
-        <v>25018</v>
-      </c>
-      <c r="E11" s="11">
-        <v>44609</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2">
-        <v>53</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="11">
-        <v>33963</v>
-      </c>
-      <c r="E12" s="11">
-        <v>44607</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2">
-        <v>29</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="11">
-        <v>19789</v>
-      </c>
-      <c r="E13" s="11">
-        <v>44606</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="2">
-        <v>68</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="11">
-        <v>24811</v>
-      </c>
-      <c r="E14" s="11">
-        <v>44606</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="2">
-        <v>54</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="11">
-        <v>30413</v>
-      </c>
-      <c r="E15" s="11">
-        <v>44603</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="2">
-        <v>39</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="11">
-        <v>34630</v>
-      </c>
-      <c r="E16" s="11">
-        <v>44603</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="2">
-        <v>27</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="11">
-        <v>16142</v>
-      </c>
-      <c r="E17" s="11">
-        <v>44603</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2">
-        <v>78</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="11">
-        <v>30395</v>
-      </c>
-      <c r="E18" s="11">
-        <v>44603</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2">
-        <v>39</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="11">
-        <v>25609</v>
-      </c>
-      <c r="E19" s="11">
-        <v>44603</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2">
-        <v>52</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="11">
-        <v>25018</v>
-      </c>
-      <c r="E20" s="11">
-        <v>44609</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="2">
-        <v>53</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L20" xr:uid="{25CBDC4F-FA36-41D6-BEF5-839AC3A22A39}"/>
+  <autoFilter ref="A4:H20" xr:uid="{25CBDC4F-FA36-41D6-BEF5-839AC3A22A39}"/>
   <conditionalFormatting sqref="A4:A20">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A20 A24:A40 A43:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5377,17 +4690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652A9845-A031-4281-8963-B10001F621DC}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -5399,224 +4713,224 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>32</v>
+      <c r="B5" s="2">
+        <v>219</v>
       </c>
       <c r="C5" s="11">
         <v>26854</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="59"/>
+      <c r="H5" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="25"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>37</v>
+      <c r="B6" s="2">
+        <v>541</v>
       </c>
       <c r="C6" s="11">
         <v>28212</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="35"/>
+        <v>114</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
+      <c r="B7" s="2">
+        <v>570</v>
       </c>
       <c r="C7" s="11">
         <v>22842</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="36" t="b">
+        <v>115</v>
+      </c>
+      <c r="G7" s="21">
+        <v>541</v>
+      </c>
+      <c r="H7" s="27" t="b">
         <f>ISNUMBER(MATCH(G7,$B$4:B$19,0))</f>
         <v>1</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="28">
         <f>VLOOKUP(G7,B:E,2,0)</f>
-        <v>26854</v>
-      </c>
-      <c r="J7" s="38" t="str">
+        <v>28212</v>
+      </c>
+      <c r="J7" s="29" t="str">
         <f>VLOOKUP(G7,B4:E19,3,0)</f>
-        <v>BPI</v>
-      </c>
-      <c r="K7" s="37">
+        <v>DITO</v>
+      </c>
+      <c r="K7" s="28">
         <f>_xlfn.XLOOKUP(G7,$B$4:$B$19,$C$4:$C$19)</f>
-        <v>26854</v>
-      </c>
-      <c r="L7" s="39" t="str">
+        <v>28212</v>
+      </c>
+      <c r="L7" s="30" t="str">
         <f>_xlfn.XLOOKUP(G7,$B$4:$B$19,$D$4:$D$19)</f>
-        <v>BPI</v>
+        <v>DITO</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>43</v>
+      <c r="B8" s="2">
+        <v>197</v>
       </c>
       <c r="C8" s="11">
         <v>23163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="40" t="b">
+        <v>116</v>
+      </c>
+      <c r="G8" s="21">
+        <v>503</v>
+      </c>
+      <c r="H8" s="31" t="b">
         <f t="shared" ref="H8:H9" si="0">ISNUMBER(MATCH(G8,$B$4:$B$19,0))</f>
         <v>1</v>
       </c>
       <c r="I8" s="10">
-        <f t="shared" ref="I8:I9" si="1">VLOOKUP(G8,B:E,2,0)</f>
-        <v>33963</v>
+        <f>VLOOKUP(G8,B:E,2,0)</f>
+        <v>24118</v>
       </c>
       <c r="J8" s="3" t="str">
-        <f t="shared" ref="J8:J9" si="2">VLOOKUP(G8,B5:E20,3,0)</f>
-        <v>BPI</v>
+        <f>VLOOKUP(G8,B5:E20,3,0)</f>
+        <v>DITO</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" ref="K8:K9" si="3">_xlfn.XLOOKUP(G8,$B$4:$B$19,$C$4:$C$19)</f>
-        <v>33963</v>
-      </c>
-      <c r="L8" s="41" t="str">
-        <f t="shared" ref="L8:L9" si="4">_xlfn.XLOOKUP(G8,$B$4:$B$19,$D$4:$D$19)</f>
-        <v>BPI</v>
+        <f t="shared" ref="K8:K9" si="1">_xlfn.XLOOKUP(G8,$B$4:$B$19,$C$4:$C$19)</f>
+        <v>24118</v>
+      </c>
+      <c r="L8" s="32" t="str">
+        <f t="shared" ref="L8:L9" si="2">_xlfn.XLOOKUP(G8,$B$4:$B$19,$D$4:$D$19)</f>
+        <v>DITO</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>47</v>
+      <c r="B9" s="2">
+        <v>871</v>
       </c>
       <c r="C9" s="11">
         <v>34943</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="40" t="b">
+        <v>117</v>
+      </c>
+      <c r="G9" s="21">
+        <v>350</v>
+      </c>
+      <c r="H9" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="10">
+        <f>VLOOKUP(G9,B:E,2,0)</f>
+        <v>19789</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f>VLOOKUP(G9,B6:E21,3,0)</f>
+        <v>Toyota</v>
+      </c>
+      <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v>30413</v>
-      </c>
-      <c r="J9" s="3" t="str">
+        <v>19789</v>
+      </c>
+      <c r="L9" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>Honda</v>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="3"/>
-        <v>30413</v>
-      </c>
-      <c r="L9" s="41" t="str">
-        <f t="shared" si="4"/>
-        <v>Honda</v>
+        <v>Toyota</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>51</v>
+      <c r="B10" s="2">
+        <v>503</v>
       </c>
       <c r="C10" s="11">
         <v>24118</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="42" t="b" cm="1">
+        <v>123</v>
+      </c>
+      <c r="H10" s="33" t="b" cm="1">
         <f t="array" ref="H10">ISNUMBER(MATCH(1, --EXACT(G10,E:E),0))</f>
         <v>1</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="J10" s="24"/>
+      <c r="I10" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="62"/>
       <c r="K10" s="10" cm="1">
         <f t="array" ref="K10">_xlfn.XLOOKUP(1, --EXACT(G10,E:E),C:C)</f>
         <v>30413</v>
       </c>
-      <c r="L10" s="43" t="str" cm="1">
+      <c r="L10" s="34" t="str" cm="1">
         <f t="array" ref="L10">_xlfn.XLOOKUP(1, --EXACT(G10,E:E),D:D)</f>
-        <v>Honda</v>
+        <v>Toyota</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>55</v>
+      <c r="B11" s="2">
+        <v>445</v>
       </c>
       <c r="C11" s="11">
         <v>25018</v>
@@ -5625,31 +4939,31 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="44" t="b" cm="1">
+        <v>127</v>
+      </c>
+      <c r="H11" s="35" t="b" cm="1">
         <f t="array" ref="H11">ISNUMBER(MATCH(1, --EXACT(G11,E:E),0))</f>
         <v>1</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47" cm="1">
+      <c r="I11" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="36" cm="1">
         <f t="array" ref="K11">_xlfn.XLOOKUP(1, --EXACT(G11,E:E),C:C)</f>
         <v>34630</v>
       </c>
-      <c r="L11" s="48" t="str" cm="1">
+      <c r="L11" s="37" t="str" cm="1">
         <f t="array" ref="L11">_xlfn.XLOOKUP(1, --EXACT(G11,E:E),D:D)</f>
-        <v>BPI</v>
+        <v>Toyota</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>58</v>
+      <c r="B12" s="2">
+        <v>632</v>
       </c>
       <c r="C12" s="11">
         <v>33963</v>
@@ -5658,105 +4972,105 @@
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>61</v>
+      <c r="B13" s="2">
+        <v>350</v>
       </c>
       <c r="C13" s="11">
         <v>19789</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>65</v>
+      <c r="B14" s="2">
+        <v>975</v>
       </c>
       <c r="C14" s="11">
         <v>24811</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>69</v>
+      <c r="B15" s="2">
+        <v>837</v>
       </c>
       <c r="C15" s="11">
         <v>30413</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>73</v>
+      <c r="B16" s="2">
+        <v>804</v>
       </c>
       <c r="C16" s="11">
         <v>34630</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>77</v>
+      <c r="B17" s="2">
+        <v>381</v>
       </c>
       <c r="C17" s="11">
         <v>16142</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>81</v>
+      <c r="B18" s="2">
+        <v>308</v>
       </c>
       <c r="C18" s="11">
         <v>30395</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>85</v>
+      <c r="B19" s="2">
+        <v>443</v>
       </c>
       <c r="C19" s="11">
         <v>25609</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5775,931 +5089,536 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A42791-B302-47C8-BD62-E999AD01435E}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>626</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44565</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3093</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="17">
+        <v>70351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2">
+        <v>622</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44563</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4030</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="17">
+        <v>21296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="C7" s="12">
+        <v>44563</v>
+      </c>
+      <c r="D7" s="13">
+        <v>9839</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="17">
+        <v>18117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2">
+        <v>804</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44563</v>
+      </c>
+      <c r="D8" s="13">
+        <v>9519</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="17">
+        <v>20246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2">
+        <v>481</v>
+      </c>
+      <c r="C9" s="12">
+        <v>44573</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1936</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="17">
+        <v>17370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="2">
+        <v>687</v>
+      </c>
+      <c r="C10" s="12">
         <v>44565</v>
       </c>
-      <c r="H5" s="13">
-        <v>765</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="K5" s="17">
-        <v>131265.16999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="12">
-        <v>44563</v>
-      </c>
-      <c r="H6" s="13">
-        <v>33300</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="17">
-        <v>4806.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="12">
-        <v>44563</v>
-      </c>
-      <c r="H7" s="13">
-        <v>225</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="17">
-        <v>4554.09</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="12">
-        <v>44563</v>
-      </c>
-      <c r="H8" s="13">
-        <v>205</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="17">
-        <v>9876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="12">
-        <v>44573</v>
-      </c>
-      <c r="H9" s="13">
-        <v>290</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="17">
-        <v>17775.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="12">
-        <v>44565</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1444.52</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K10" s="17">
-        <v>168276.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="13">
+        <v>1649</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="17">
+        <v>147380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="12">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2">
+        <v>972</v>
+      </c>
+      <c r="C11" s="12">
         <v>44596</v>
       </c>
-      <c r="H11" s="13">
-        <v>351.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="13">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" s="12">
+        <v>129</v>
+      </c>
+      <c r="B12" s="2">
+        <v>731</v>
+      </c>
+      <c r="C12" s="12">
         <v>44613</v>
       </c>
-      <c r="H12" s="13">
-        <v>2190.0300000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="13">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="B13" s="2">
+        <v>866</v>
+      </c>
+      <c r="C13" s="12">
         <v>44605</v>
       </c>
-      <c r="H13" s="13">
-        <v>2265.0300000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="13">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="12">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2">
+        <v>384</v>
+      </c>
+      <c r="C14" s="12">
         <v>44635</v>
       </c>
-      <c r="H14" s="13">
-        <v>1471.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="13">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="B15" s="2">
+        <v>302</v>
+      </c>
+      <c r="C15" s="12">
         <v>44637</v>
       </c>
-      <c r="H15" s="13">
-        <v>1300.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="13">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="12">
+        <v>129</v>
+      </c>
+      <c r="B16" s="2">
+        <v>865</v>
+      </c>
+      <c r="C16" s="12">
         <v>44639</v>
       </c>
-      <c r="H16" s="13">
-        <v>405.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="13">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="12">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>624</v>
+      </c>
+      <c r="C17" s="12">
         <v>44641</v>
       </c>
-      <c r="H17" s="13">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="13">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="12">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>137</v>
+      </c>
+      <c r="C18" s="12">
         <v>44643</v>
       </c>
-      <c r="H18" s="13">
-        <v>945.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="13">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="12">
+        <v>129</v>
+      </c>
+      <c r="B19" s="2">
+        <v>206</v>
+      </c>
+      <c r="C19" s="12">
         <v>44677</v>
       </c>
-      <c r="H19" s="13">
-        <v>3400.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="13">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="B20" s="2">
+        <v>856</v>
+      </c>
+      <c r="C20" s="12">
         <v>44678</v>
       </c>
-      <c r="H20" s="13">
-        <v>539.99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="13">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="12">
+        <v>129</v>
+      </c>
+      <c r="B21" s="2">
+        <v>884</v>
+      </c>
+      <c r="C21" s="12">
         <v>44676</v>
       </c>
-      <c r="H21" s="13">
-        <v>5935.94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="13">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="12">
+        <v>130</v>
+      </c>
+      <c r="B22" s="2">
+        <v>287</v>
+      </c>
+      <c r="C22" s="12">
         <v>44682</v>
       </c>
-      <c r="H22" s="13">
-        <v>425.16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="13">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="12">
+        <v>128</v>
+      </c>
+      <c r="B23" s="2">
+        <v>177</v>
+      </c>
+      <c r="C23" s="12">
         <v>44682</v>
       </c>
-      <c r="H23" s="13">
-        <v>8790</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="13">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="12">
+        <v>128</v>
+      </c>
+      <c r="B24" s="2">
+        <v>464</v>
+      </c>
+      <c r="C24" s="12">
         <v>44682</v>
       </c>
-      <c r="H24" s="13">
-        <v>3610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="13">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="12">
+        <v>110</v>
+      </c>
+      <c r="B25" s="2">
+        <v>494</v>
+      </c>
+      <c r="C25" s="12">
         <v>44710</v>
       </c>
-      <c r="H25" s="13">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="13">
+        <v>9248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="12">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>613</v>
+      </c>
+      <c r="C26" s="12">
         <v>44591</v>
       </c>
-      <c r="H26" s="13">
-        <v>2839.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="13">
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="12">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2">
+        <v>663</v>
+      </c>
+      <c r="C27" s="12">
         <v>44573</v>
       </c>
-      <c r="H27" s="13">
-        <v>26718.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="13">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="12">
+        <v>130</v>
+      </c>
+      <c r="B28" s="2">
+        <v>911</v>
+      </c>
+      <c r="C28" s="12">
         <v>44586</v>
       </c>
-      <c r="H28" s="13">
-        <v>28282.959999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="13">
+        <v>7928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="12">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2">
+        <v>920</v>
+      </c>
+      <c r="C29" s="12">
         <v>44574</v>
       </c>
-      <c r="H29" s="13">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="13">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="12">
+        <v>129</v>
+      </c>
+      <c r="B30" s="2">
+        <v>364</v>
+      </c>
+      <c r="C30" s="12">
         <v>44569</v>
       </c>
-      <c r="H30" s="13">
-        <v>9490</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="13">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="12">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2">
+        <v>734</v>
+      </c>
+      <c r="C31" s="12">
         <v>44569</v>
       </c>
-      <c r="H31" s="13">
-        <v>8990</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="13">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="12">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2">
+        <v>581</v>
+      </c>
+      <c r="C32" s="12">
         <v>44572</v>
       </c>
-      <c r="H32" s="13">
-        <v>3990</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="13">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="12">
+        <v>130</v>
+      </c>
+      <c r="B33" s="2">
+        <v>242</v>
+      </c>
+      <c r="C33" s="12">
         <v>44563</v>
       </c>
-      <c r="H33" s="13">
-        <v>4990</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="13">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G34" s="12">
+        <v>130</v>
+      </c>
+      <c r="B34" s="2">
+        <v>531</v>
+      </c>
+      <c r="C34" s="12">
         <v>44576</v>
       </c>
-      <c r="H34" s="13">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="13">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="12">
+        <v>110</v>
+      </c>
+      <c r="B35" s="2">
+        <v>239</v>
+      </c>
+      <c r="C35" s="12">
         <v>44581</v>
       </c>
-      <c r="H35" s="13">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="13">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="12">
+        <v>130</v>
+      </c>
+      <c r="B36" s="2">
+        <v>379</v>
+      </c>
+      <c r="C36" s="12">
         <v>44584</v>
       </c>
-      <c r="H36" s="13">
-        <v>3990</v>
+      <c r="D36" s="13">
+        <v>3459</v>
       </c>
     </row>
   </sheetData>
@@ -6730,35 +5649,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2">
         <v>800</v>
@@ -6766,26 +5685,26 @@
       <c r="C5" s="2">
         <v>1492</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="23">
         <f>B5/C5</f>
         <v>0.53619302949061665</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="63">
         <f>SUM(B5:B7)</f>
         <v>3275</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="63">
         <f>SUM(C5:C7)</f>
         <v>5238</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="64">
         <f>E5/F5</f>
         <v>0.62523864070255819</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2">
         <v>946</v>
@@ -6793,17 +5712,17 @@
       <c r="C6" s="2">
         <v>1746</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="23">
         <f t="shared" ref="D6:D10" si="0">B6/C6</f>
         <v>0.54180985108820157</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>1529</v>
@@ -6811,17 +5730,17 @@
       <c r="C7" s="2">
         <v>2000</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="23">
         <f t="shared" si="0"/>
         <v>0.76449999999999996</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2">
         <v>956</v>
@@ -6829,26 +5748,26 @@
       <c r="C8" s="2">
         <v>3864</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="23">
         <f t="shared" si="0"/>
         <v>0.2474120082815735</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="63">
         <f>SUM(B8:B10)</f>
         <v>3133</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="63">
         <f>SUM(C8:C10)</f>
         <v>13895</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="64">
         <f>E8/F8</f>
         <v>0.22547679021230657</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2">
         <v>883</v>
@@ -6856,17 +5775,17 @@
       <c r="C9" s="2">
         <v>8182</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="23">
         <f t="shared" si="0"/>
         <v>0.10791982400391102</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2">
         <v>1294</v>
@@ -6874,17 +5793,17 @@
       <c r="C10" s="2">
         <v>1849</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="23">
         <f t="shared" si="0"/>
         <v>0.69983775013520821</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2">
         <f>SUM(B5:B10)</f>
@@ -6921,30 +5840,30 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -6965,7 +5884,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6">
         <v>95</v>
@@ -6986,7 +5905,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6">
         <v>216</v>
@@ -7007,7 +5926,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6">
         <v>61</v>
@@ -7028,7 +5947,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6">
         <v>159</v>
@@ -7058,10 +5977,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D5:D10 G5:G10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7126,50 +6045,50 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="38">
         <f>SUM(A4:A25)</f>
         <v>4759</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="39">
         <f>AVERAGE(A4:A25)</f>
         <v>237.95</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="39">
         <f>COUNT(A4:A25)</f>
         <v>20</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="39">
         <f>MEDIAN(A4:A25)</f>
         <v>29.5</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <f>_xlfn.MODE.SNGL(A4:A25)</f>
         <v>2</v>
       </c>
@@ -7279,7 +6198,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7291,65 +6210,62 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="52" t="str">
+        <v>51</v>
+      </c>
+      <c r="D4" s="41" t="str">
         <f>_xlfn.CONCAT(A4, " ",A5, " ", A6, " ", A7)</f>
-        <v>AyALa         CustOmer InSigHting GrOUp</v>
+        <v xml:space="preserve">SaMple CompAnY inCorpOraTED </v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="53" t="str">
+        <v>52</v>
+      </c>
+      <c r="D5" s="42" t="str">
         <f>TRIM(D4)</f>
-        <v>AyALa CustOmer InSigHting GrOUp</v>
+        <v>SaMple CompAnY inCorpOraTED</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="53" t="str">
+        <v>53</v>
+      </c>
+      <c r="D6" s="42" t="str">
         <f>LOWER(D5)</f>
-        <v>ayala customer insighting group</v>
+        <v>sample company incorporated</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
       <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="53" t="str">
+        <v>54</v>
+      </c>
+      <c r="D7" s="42" t="str">
         <f>UPPER(D6)</f>
-        <v>AYALA CUSTOMER INSIGHTING GROUP</v>
+        <v>SAMPLE COMPANY INCORPORATED</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="54" t="str">
+        <v>55</v>
+      </c>
+      <c r="D8" s="43" t="str">
         <f>PROPER(D7)</f>
-        <v>Ayala Customer Insighting Group</v>
+        <v>Sample Company Incorporated</v>
       </c>
     </row>
   </sheetData>
@@ -7362,54 +6278,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611939A7-2AC5-4FE5-8C88-EB6B96203FB1}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="XEL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="XFD26" sqref="XFD26"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>197</v>
+      <c r="A6" s="2">
+        <v>959</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C6" s="12">
         <v>44565</v>
@@ -7417,22 +6329,22 @@
       <c r="D6" s="13">
         <v>765</v>
       </c>
-      <c r="E6" s="58" t="str">
+      <c r="E6" s="47" t="str">
         <f>IF(D6&gt;2000, "High Revenue", "Low Revenue")</f>
         <v>Low Revenue</v>
       </c>
-      <c r="F6" s="55" t="b">
+      <c r="F6" s="44" t="b">
         <f>IF(AND(D6&gt;2000, B6="F&amp;B"), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>198</v>
+      <c r="A7" s="2">
+        <v>951</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12">
         <v>44563</v>
@@ -7440,22 +6352,22 @@
       <c r="D7" s="13">
         <v>33300</v>
       </c>
-      <c r="E7" s="59" t="str">
+      <c r="E7" s="48" t="str">
         <f t="shared" ref="E7:E37" si="0">IF(D7&gt;2000, "High Revenue", "Low Revenue")</f>
         <v>High Revenue</v>
       </c>
-      <c r="F7" s="56" t="b">
+      <c r="F7" s="45" t="b">
         <f t="shared" ref="F7:F37" si="1">IF(AND(D7&gt;2000, B7="F&amp;B"), TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>199</v>
+      <c r="A8" s="2">
+        <v>531</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C8" s="12">
         <v>44563</v>
@@ -7463,22 +6375,22 @@
       <c r="D8" s="13">
         <v>225</v>
       </c>
-      <c r="E8" s="59" t="str">
+      <c r="E8" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F8" s="56" t="b">
+      <c r="F8" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>200</v>
+      <c r="A9" s="2">
+        <v>413</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C9" s="12">
         <v>44563</v>
@@ -7486,22 +6398,22 @@
       <c r="D9" s="13">
         <v>205</v>
       </c>
-      <c r="E9" s="59" t="str">
+      <c r="E9" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F9" s="56" t="b">
+      <c r="F9" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>201</v>
+      <c r="A10" s="2">
+        <v>296</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C10" s="12">
         <v>44573</v>
@@ -7509,28 +6421,28 @@
       <c r="D10" s="13">
         <v>290</v>
       </c>
-      <c r="E10" s="59" t="str">
+      <c r="E10" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F10" s="56" t="b">
+      <c r="F10" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10" s="62">
+        <v>97</v>
+      </c>
+      <c r="I10" s="50">
         <f>SUM(D6:D37)</f>
         <v>168276.49</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>202</v>
+      <c r="A11" s="2">
+        <v>190</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C11" s="12">
         <v>44565</v>
@@ -7538,28 +6450,28 @@
       <c r="D11" s="13">
         <v>1444.52</v>
       </c>
-      <c r="E11" s="59" t="str">
+      <c r="E11" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F11" s="56" t="b">
+      <c r="F11" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I11" s="63">
+        <v>98</v>
+      </c>
+      <c r="I11" s="51">
         <f>SUMIF(B6:B37, "Lifestyle", D6:D37)</f>
         <v>36430</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>203</v>
+      <c r="A12" s="2">
+        <v>909</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C12" s="12">
         <v>44565</v>
@@ -7567,28 +6479,28 @@
       <c r="D12" s="13">
         <v>351.01</v>
       </c>
-      <c r="E12" s="59" t="str">
+      <c r="E12" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F12" s="56" t="b">
+      <c r="F12" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="64">
+        <v>99</v>
+      </c>
+      <c r="I12" s="52">
         <f>SUMIFS(D6:D37, B6:B37, "Automotive", E6:E37, "High Revenue")</f>
         <v>55001.369999999995</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>204</v>
+      <c r="A13" s="2">
+        <v>410</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12">
         <v>44582</v>
@@ -7596,22 +6508,22 @@
       <c r="D13" s="13">
         <v>2190.0300000000002</v>
       </c>
-      <c r="E13" s="59" t="str">
+      <c r="E13" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F13" s="56" t="b">
+      <c r="F13" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>205</v>
+      <c r="A14" s="2">
+        <v>684</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C14" s="12">
         <v>44574</v>
@@ -7619,28 +6531,28 @@
       <c r="D14" s="13">
         <v>2265.0300000000002</v>
       </c>
-      <c r="E14" s="59" t="str">
+      <c r="E14" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F14" s="56" t="b">
+      <c r="F14" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I14" s="65">
+        <v>100</v>
+      </c>
+      <c r="I14" s="24">
         <f>COUNT(A6:A37)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>206</v>
+      <c r="A15" s="2">
+        <v>369</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C15" s="12">
         <v>44576</v>
@@ -7648,28 +6560,28 @@
       <c r="D15" s="13">
         <v>1471.53</v>
       </c>
-      <c r="E15" s="59" t="str">
+      <c r="E15" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F15" s="56" t="b">
+      <c r="F15" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I15" s="33">
+        <v>101</v>
+      </c>
+      <c r="I15" s="25">
         <f>COUNTIF(E6:E37, "Low Revenue")</f>
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>207</v>
+      <c r="A16" s="2">
+        <v>254</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C16" s="12">
         <v>44578</v>
@@ -7677,28 +6589,28 @@
       <c r="D16" s="13">
         <v>1300.52</v>
       </c>
-      <c r="E16" s="59" t="str">
+      <c r="E16" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F16" s="56" t="b">
+      <c r="F16" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" s="66">
+        <v>102</v>
+      </c>
+      <c r="I16" s="53">
         <f>COUNTIFS(E6:E37, "Low Revenue", B6:B37, "F&amp;B")</f>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>208</v>
+      <c r="A17" s="2">
+        <v>822</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12">
         <v>44580</v>
@@ -7706,22 +6618,22 @@
       <c r="D17" s="13">
         <v>405.01</v>
       </c>
-      <c r="E17" s="59" t="str">
+      <c r="E17" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F17" s="56" t="b">
+      <c r="F17" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>209</v>
+      <c r="A18" s="2">
+        <v>321</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C18" s="12">
         <v>44582</v>
@@ -7729,28 +6641,28 @@
       <c r="D18" s="13">
         <v>432</v>
       </c>
-      <c r="E18" s="59" t="str">
+      <c r="E18" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F18" s="56" t="b">
+      <c r="F18" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I18" s="62">
+        <v>103</v>
+      </c>
+      <c r="I18" s="50">
         <f>AVERAGE(D6:D37)</f>
         <v>5258.6403124999997</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>210</v>
+      <c r="A19" s="2">
+        <v>797</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C19" s="12">
         <v>44584</v>
@@ -7758,28 +6670,28 @@
       <c r="D19" s="13">
         <v>945.03</v>
       </c>
-      <c r="E19" s="59" t="str">
+      <c r="E19" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F19" s="56" t="b">
+      <c r="F19" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I19" s="63">
+        <v>104</v>
+      </c>
+      <c r="I19" s="51">
         <f>AVERAGEIF(B6:B37, "Lifestyle", D6:D37)</f>
         <v>5204.2857142857147</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>211</v>
+      <c r="A20" s="2">
+        <v>236</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C20" s="12">
         <v>44587</v>
@@ -7787,28 +6699,28 @@
       <c r="D20" s="13">
         <v>3400.07</v>
       </c>
-      <c r="E20" s="59" t="str">
+      <c r="E20" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F20" s="56" t="b">
+      <c r="F20" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="64">
+        <v>105</v>
+      </c>
+      <c r="I20" s="52">
         <f>AVERAGEIFS( D6:D37,B6:B37, "Lifestyle", E6:E37, "High Revenue")</f>
         <v>5204.2857142857147</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>212</v>
+      <c r="A21" s="2">
+        <v>276</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C21" s="12">
         <v>44588</v>
@@ -7816,22 +6728,22 @@
       <c r="D21" s="13">
         <v>539.99</v>
       </c>
-      <c r="E21" s="59" t="str">
+      <c r="E21" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F21" s="56" t="b">
+      <c r="F21" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>213</v>
+      <c r="A22" s="2">
+        <v>610</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C22" s="12">
         <v>44586</v>
@@ -7839,22 +6751,22 @@
       <c r="D22" s="13">
         <v>5935.94</v>
       </c>
-      <c r="E22" s="59" t="str">
+      <c r="E22" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F22" s="56" t="b">
+      <c r="F22" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>214</v>
+      <c r="A23" s="2">
+        <v>518</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C23" s="12">
         <v>44565</v>
@@ -7862,22 +6774,22 @@
       <c r="D23" s="13">
         <v>425.16</v>
       </c>
-      <c r="E23" s="59" t="str">
+      <c r="E23" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F23" s="56" t="b">
+      <c r="F23" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>215</v>
+      <c r="A24" s="2">
+        <v>846</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C24" s="12">
         <v>44562</v>
@@ -7885,22 +6797,22 @@
       <c r="D24" s="13">
         <v>8790</v>
       </c>
-      <c r="E24" s="59" t="str">
+      <c r="E24" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F24" s="56" t="b">
+      <c r="F24" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>216</v>
+      <c r="A25" s="2">
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C25" s="12">
         <v>44562</v>
@@ -7908,22 +6820,22 @@
       <c r="D25" s="13">
         <v>3610</v>
       </c>
-      <c r="E25" s="59" t="str">
+      <c r="E25" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F25" s="56" t="b">
+      <c r="F25" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>217</v>
+      <c r="A26" s="2">
+        <v>201</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C26" s="12">
         <v>44590</v>
@@ -7931,22 +6843,22 @@
       <c r="D26" s="13">
         <v>4950</v>
       </c>
-      <c r="E26" s="59" t="str">
+      <c r="E26" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F26" s="56" t="b">
+      <c r="F26" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>218</v>
+      <c r="A27" s="2">
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C27" s="12">
         <v>44591</v>
@@ -7954,22 +6866,22 @@
       <c r="D27" s="13">
         <v>2839.28</v>
       </c>
-      <c r="E27" s="59" t="str">
+      <c r="E27" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F27" s="56" t="b">
+      <c r="F27" s="45" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>219</v>
+      <c r="A28" s="2">
+        <v>545</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="C28" s="12">
         <v>44573</v>
@@ -7977,22 +6889,22 @@
       <c r="D28" s="13">
         <v>26718.41</v>
       </c>
-      <c r="E28" s="59" t="str">
+      <c r="E28" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F28" s="56" t="b">
+      <c r="F28" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>220</v>
+      <c r="A29" s="2">
+        <v>434</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="C29" s="12">
         <v>44586</v>
@@ -8000,22 +6912,22 @@
       <c r="D29" s="13">
         <v>28282.959999999999</v>
       </c>
-      <c r="E29" s="59" t="str">
+      <c r="E29" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F29" s="56" t="b">
+      <c r="F29" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>221</v>
+      <c r="A30" s="2">
+        <v>608</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C30" s="12">
         <v>44574</v>
@@ -8023,22 +6935,22 @@
       <c r="D30" s="13">
         <v>765</v>
       </c>
-      <c r="E30" s="59" t="str">
+      <c r="E30" s="48" t="str">
         <f t="shared" si="0"/>
         <v>Low Revenue</v>
       </c>
-      <c r="F30" s="56" t="b">
+      <c r="F30" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>222</v>
+      <c r="A31" s="2">
+        <v>332</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C31" s="12">
         <v>44569</v>
@@ -8046,22 +6958,22 @@
       <c r="D31" s="13">
         <v>9490</v>
       </c>
-      <c r="E31" s="59" t="str">
+      <c r="E31" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F31" s="56" t="b">
+      <c r="F31" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>223</v>
+      <c r="A32" s="2">
+        <v>939</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C32" s="12">
         <v>44569</v>
@@ -8069,22 +6981,22 @@
       <c r="D32" s="13">
         <v>8990</v>
       </c>
-      <c r="E32" s="59" t="str">
+      <c r="E32" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F32" s="56" t="b">
+      <c r="F32" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>224</v>
+      <c r="A33" s="2">
+        <v>834</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C33" s="12">
         <v>44572</v>
@@ -8092,22 +7004,22 @@
       <c r="D33" s="13">
         <v>3990</v>
       </c>
-      <c r="E33" s="59" t="str">
+      <c r="E33" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F33" s="56" t="b">
+      <c r="F33" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>225</v>
+      <c r="A34" s="2">
+        <v>187</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C34" s="12">
         <v>44563</v>
@@ -8115,22 +7027,22 @@
       <c r="D34" s="13">
         <v>4990</v>
       </c>
-      <c r="E34" s="59" t="str">
+      <c r="E34" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F34" s="56" t="b">
+      <c r="F34" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>226</v>
+      <c r="A35" s="2">
+        <v>296</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C35" s="12">
         <v>44576</v>
@@ -8138,22 +7050,22 @@
       <c r="D35" s="13">
         <v>2490</v>
       </c>
-      <c r="E35" s="59" t="str">
+      <c r="E35" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F35" s="56" t="b">
+      <c r="F35" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>227</v>
+      <c r="A36" s="2">
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C36" s="12">
         <v>44581</v>
@@ -8161,22 +7073,22 @@
       <c r="D36" s="13">
         <v>2490</v>
       </c>
-      <c r="E36" s="59" t="str">
+      <c r="E36" s="48" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F36" s="56" t="b">
+      <c r="F36" s="45" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>228</v>
+      <c r="A37" s="2">
+        <v>829</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C37" s="12">
         <v>44584</v>
@@ -8184,11 +7096,11 @@
       <c r="D37" s="13">
         <v>3990</v>
       </c>
-      <c r="E37" s="60" t="str">
+      <c r="E37" s="49" t="str">
         <f t="shared" si="0"/>
         <v>High Revenue</v>
       </c>
-      <c r="F37" s="57" t="b">
+      <c r="F37" s="46" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
